--- a/data/trans_dic/P16A_n_R3-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A_n_R3-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,17; 4,41</t>
+          <t>2,19; 4,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,2; 6,13</t>
+          <t>3,21; 6,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,76; 6,63</t>
+          <t>3,72; 6,74</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>10,44; 15,12</t>
+          <t>10,31; 15,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,82; 6,2</t>
+          <t>3,8; 6,19</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>9,07; 12,6</t>
+          <t>9,09; 12,58</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,88; 12,11</t>
+          <t>7,98; 11,99</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>22,78; 27,61</t>
+          <t>22,77; 27,81</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,33; 4,99</t>
+          <t>3,41; 4,98</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6,95; 9,4</t>
+          <t>6,86; 9,18</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,62; 9,24</t>
+          <t>6,46; 9,12</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>18,21; 21,96</t>
+          <t>18,24; 21,88</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,36; 1,18</t>
+          <t>0,37; 1,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,33; 1,2</t>
+          <t>0,35; 1,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,37; 1,21</t>
+          <t>0,42; 1,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,42; 4,21</t>
+          <t>2,26; 4,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,85; 2,02</t>
+          <t>0,82; 2,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,92; 2,14</t>
+          <t>0,92; 1,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,67; 3,04</t>
+          <t>1,68; 3,05</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,48; 6,1</t>
+          <t>3,8; 6,13</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,7; 1,39</t>
+          <t>0,71; 1,43</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,7; 1,34</t>
+          <t>0,72; 1,43</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,12; 1,9</t>
+          <t>1,12; 1,93</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,48; 4,93</t>
+          <t>3,37; 4,91</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,34; 1,91</t>
+          <t>0,32; 2,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,39; 3,48</t>
+          <t>0,38; 3,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,69</t>
+          <t>0,17; 1,83</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,4; 3,49</t>
+          <t>1,4; 3,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,18</t>
+          <t>0,0; 1,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,87; 3,74</t>
+          <t>0,91; 3,8</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,57; 2,87</t>
+          <t>0,59; 2,92</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,65; 5,03</t>
+          <t>2,73; 5,11</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,21; 1,17</t>
+          <t>0,19; 1,18</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,83; 2,89</t>
+          <t>0,8; 3,05</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,52; 1,94</t>
+          <t>0,49; 1,97</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,34; 3,89</t>
+          <t>2,28; 3,85</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,12; 2,02</t>
+          <t>1,12; 1,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,37; 2,39</t>
+          <t>1,38; 2,46</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,27; 2,13</t>
+          <t>1,24; 2,13</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,49; 5,21</t>
+          <t>3,48; 5,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,1; 3,23</t>
+          <t>2,05; 3,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,28; 5,75</t>
+          <t>4,27; 5,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,65; 5,13</t>
+          <t>3,61; 5,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,18; 9,96</t>
+          <t>7,38; 10,01</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,72; 2,39</t>
+          <t>1,71; 2,42</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>2,96; 3,88</t>
+          <t>2,98; 3,92</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>2,64; 3,47</t>
+          <t>2,58; 3,42</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,92; 7,5</t>
+          <t>5,93; 7,5</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido cinco o más medicamentos en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>32088</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>43343</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>37764</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>65188</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>64008</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>143163</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>98260</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>189408</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>96096</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>186506</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>136024</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>254596</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>22617; 44269</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>31317; 60518</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>28066; 50815</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>53087; 78662</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>50019; 81355</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>121638; 168297</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>79353; 119309</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>172020; 210101</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>80057; 116795</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>158602; 212328</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>112950; 159425</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>231787; 277995</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>326</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>11578</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>12354</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>14966</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>76488</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>21813</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>25136</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>45372</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>115277</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>33391</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>37490</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>60339</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>191765</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>6223; 21531</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>6837; 22272</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>8665; 24281</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>51872; 95865</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>13021; 31708</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>16197; 34880</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>33367; 60626</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>85149; 137242</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>23262; 47075</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>26900; 53112</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>45476; 78612</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>152748; 222242</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>4748</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>6197</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>3533</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>14861</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1125</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>8832</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>8154</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>24530</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>5873</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>15029</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>11687</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>39391</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1779; 11440</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1852; 15425</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>927; 10017</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>9021; 22908</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5677</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>4170; 17411</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>3221; 16042</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>18052; 33745</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1983; 12137</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>7482; 28682</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>5392; 21571</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>29763; 50264</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>637</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>870</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>48414</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>61895</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>56263</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>156537</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>86946</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>177131</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>151786</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>329215</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>135360</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>239025</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>208049</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>485752</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>36592; 64528</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>47229; 84021</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>41885; 71831</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>120105; 181987</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>69379; 108246</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>151835; 203366</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>127532; 176603</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>269676; 365618</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>113981; 161115</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>207937; 273502</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>178032; 236488</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>421596; 533233</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>